--- a/excel_reports/Nick_Thompson.xlsx
+++ b/excel_reports/Nick_Thompson.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19382" uniqueCount="4156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19354" uniqueCount="4149">
   <si>
     <t>Policy Record</t>
   </si>
@@ -11850,27 +11850,6 @@
   </si>
   <si>
     <t>No Dental Coverage</t>
-  </si>
-  <si>
-    <t>4365146923</t>
-  </si>
-  <si>
-    <t>9315401</t>
-  </si>
-  <si>
-    <t>Stang</t>
-  </si>
-  <si>
-    <t>3718517530</t>
-  </si>
-  <si>
-    <t>6000851</t>
-  </si>
-  <si>
-    <t>Rhi</t>
-  </si>
-  <si>
-    <t>Neal</t>
   </si>
   <si>
     <t>3721246568</t>
@@ -12901,12 +12880,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>4127</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>4128</v>
+        <v>4121</v>
       </c>
       <c r="B2" s="2">
         <v>604</v>
@@ -12914,7 +12893,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>4129</v>
+        <v>4122</v>
       </c>
       <c r="B3" s="2">
         <v>746</v>
@@ -12922,18 +12901,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>4130</v>
+        <v>4123</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4131</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>4132</v>
+        <v>4125</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -12942,7 +12921,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>4133</v>
+        <v>4126</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -12950,30 +12929,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>4134</v>
+        <v>4127</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4135</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>4136</v>
+        <v>4129</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4137</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>4138</v>
+        <v>4131</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -12982,12 +12961,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>4139</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>4140</v>
+        <v>4133</v>
       </c>
       <c r="B12" s="2">
         <v>104</v>
@@ -12995,20 +12974,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>4141</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>4142</v>
+        <v>4135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4155</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>4143</v>
+        <v>4136</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -13017,12 +12996,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>4144</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>4145</v>
+        <v>4138</v>
       </c>
       <c r="B20">
         <v>96</v>
@@ -13030,15 +13009,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>4146</v>
+        <v>4139</v>
       </c>
       <c r="B21">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>4147</v>
+        <v>4140</v>
       </c>
       <c r="B22" s="2">
         <v>5</v>
@@ -13046,7 +13025,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>4148</v>
+        <v>4141</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -13055,7 +13034,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>4149</v>
+        <v>4142</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -13064,7 +13043,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>4150</v>
+        <v>4143</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -13072,7 +13051,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>4151</v>
+        <v>4144</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -13080,7 +13059,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>4152</v>
+        <v>4145</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -13088,7 +13067,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>4153</v>
+        <v>4146</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -13097,7 +13076,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>4154</v>
+        <v>4147</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -69925,7 +69904,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T316"/>
+  <dimension ref="A1:T312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -71177,13 +71156,13 @@
         <v>3943</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>3944</v>
+        <v>1179</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>310</v>
+        <v>113</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>1154</v>
+        <v>114</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>652</v>
@@ -71192,25 +71171,25 @@
         <v>653</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>2127</v>
+        <v>652</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>3945</v>
+        <v>653</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>3906</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>3942</v>
+        <v>3907</v>
       </c>
       <c r="K56" t="s">
         <v>3908</v>
       </c>
       <c r="L56" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="M56" t="s">
-        <v>371</v>
+        <v>72</v>
       </c>
       <c r="N56" t="s">
         <v>21</v>
@@ -71218,16 +71197,16 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="7" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>3947</v>
+        <v>1251</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>970</v>
+        <v>1252</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>652</v>
@@ -71236,10 +71215,10 @@
         <v>653</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>3948</v>
+        <v>652</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>3949</v>
+        <v>653</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>3906</v>
@@ -71254,24 +71233,24 @@
         <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>141</v>
+        <v>779</v>
       </c>
       <c r="N58" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="7" t="s">
-        <v>3950</v>
+        <v>3945</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1179</v>
+        <v>1249</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>113</v>
+        <v>1153</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>652</v>
@@ -71298,24 +71277,24 @@
         <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>72</v>
+        <v>2937</v>
       </c>
       <c r="N60" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="7" t="s">
-        <v>3951</v>
+        <v>3946</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>1252</v>
+        <v>445</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>108</v>
+        <v>446</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>652</v>
@@ -71333,7 +71312,7 @@
         <v>3906</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>3907</v>
+        <v>3942</v>
       </c>
       <c r="K62" t="s">
         <v>3908</v>
@@ -71342,24 +71321,24 @@
         <v>18</v>
       </c>
       <c r="M62" t="s">
-        <v>779</v>
+        <v>423</v>
       </c>
       <c r="N62" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="7" t="s">
-        <v>3952</v>
+        <v>3947</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1249</v>
+        <v>1268</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>1153</v>
+        <v>1061</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>108</v>
+        <v>1269</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>652</v>
@@ -71386,24 +71365,24 @@
         <v>18</v>
       </c>
       <c r="M64" t="s">
-        <v>2937</v>
+        <v>1270</v>
       </c>
       <c r="N64" t="s">
-        <v>32</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="7" t="s">
-        <v>3953</v>
+        <v>3948</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1259</v>
+        <v>1287</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>445</v>
+        <v>56</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>446</v>
+        <v>1288</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>652</v>
@@ -71421,7 +71400,7 @@
         <v>3906</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>3942</v>
+        <v>3907</v>
       </c>
       <c r="K66" t="s">
         <v>3908</v>
@@ -71430,30 +71409,30 @@
         <v>18</v>
       </c>
       <c r="M66" t="s">
-        <v>423</v>
+        <v>948</v>
       </c>
       <c r="N66" t="s">
-        <v>21</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="7" t="s">
-        <v>3954</v>
+        <v>3949</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1268</v>
+        <v>1313</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>1061</v>
+        <v>1314</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>1269</v>
+        <v>1315</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>652</v>
+        <v>3950</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>653</v>
+        <v>42</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>652</v>
@@ -71474,24 +71453,24 @@
         <v>18</v>
       </c>
       <c r="M68" t="s">
-        <v>1270</v>
+        <v>367</v>
       </c>
       <c r="N68" t="s">
-        <v>458</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="7" t="s">
-        <v>3955</v>
+        <v>3951</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1287</v>
+        <v>1336</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>1288</v>
+        <v>200</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>652</v>
@@ -71509,7 +71488,7 @@
         <v>3906</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>3907</v>
+        <v>3942</v>
       </c>
       <c r="K70" t="s">
         <v>3908</v>
@@ -71518,30 +71497,30 @@
         <v>18</v>
       </c>
       <c r="M70" t="s">
-        <v>948</v>
+        <v>127</v>
       </c>
       <c r="N70" t="s">
-        <v>574</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="7" t="s">
-        <v>3956</v>
+        <v>3952</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1313</v>
+        <v>1338</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>1314</v>
+        <v>1339</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>1315</v>
+        <v>1340</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>3957</v>
+        <v>652</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>42</v>
+        <v>653</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>652</v>
@@ -71553,7 +71532,7 @@
         <v>3906</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>3907</v>
+        <v>3933</v>
       </c>
       <c r="K72" t="s">
         <v>3908</v>
@@ -71562,24 +71541,24 @@
         <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>367</v>
+        <v>468</v>
       </c>
       <c r="N72" t="s">
-        <v>21</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="7" t="s">
-        <v>3958</v>
+        <v>3953</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1336</v>
+        <v>1360</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>199</v>
+        <v>1361</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>200</v>
+        <v>1362</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>652</v>
@@ -71597,7 +71576,7 @@
         <v>3906</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>3942</v>
+        <v>3907</v>
       </c>
       <c r="K74" t="s">
         <v>3908</v>
@@ -71606,24 +71585,24 @@
         <v>18</v>
       </c>
       <c r="M74" t="s">
-        <v>127</v>
+        <v>2029</v>
       </c>
       <c r="N74" t="s">
-        <v>38</v>
+        <v>738</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="7" t="s">
-        <v>3959</v>
+        <v>3954</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1338</v>
+        <v>1365</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>1339</v>
+        <v>377</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>1340</v>
+        <v>378</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>652</v>
@@ -71641,7 +71620,7 @@
         <v>3906</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>3933</v>
+        <v>3907</v>
       </c>
       <c r="K76" t="s">
         <v>3908</v>
@@ -71650,24 +71629,24 @@
         <v>18</v>
       </c>
       <c r="M76" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="N76" t="s">
-        <v>465</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="7" t="s">
-        <v>3960</v>
+        <v>3955</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1360</v>
+        <v>1367</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>1361</v>
+        <v>382</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>1362</v>
+        <v>378</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>652</v>
@@ -71694,24 +71673,24 @@
         <v>18</v>
       </c>
       <c r="M78" t="s">
-        <v>2029</v>
+        <v>422</v>
       </c>
       <c r="N78" t="s">
-        <v>738</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="7" t="s">
-        <v>3961</v>
+        <v>3956</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1365</v>
+        <v>1380</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>377</v>
+        <v>1381</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>378</v>
+        <v>1382</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>652</v>
@@ -71729,7 +71708,7 @@
         <v>3906</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>3907</v>
+        <v>3933</v>
       </c>
       <c r="K80" t="s">
         <v>3908</v>
@@ -71738,24 +71717,24 @@
         <v>18</v>
       </c>
       <c r="M80" t="s">
-        <v>422</v>
+        <v>662</v>
       </c>
       <c r="N80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="7" t="s">
-        <v>3962</v>
+        <v>3957</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>1367</v>
+        <v>1390</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>382</v>
+        <v>1391</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>378</v>
+        <v>1392</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>652</v>
@@ -71782,24 +71761,24 @@
         <v>18</v>
       </c>
       <c r="M82" t="s">
-        <v>422</v>
+        <v>3130</v>
       </c>
       <c r="N82" t="s">
-        <v>33</v>
+        <v>729</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="7" t="s">
-        <v>3963</v>
+        <v>3958</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1380</v>
+        <v>1431</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>1381</v>
+        <v>1432</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1382</v>
+        <v>1433</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>652</v>
@@ -71817,7 +71796,7 @@
         <v>3906</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>3933</v>
+        <v>3907</v>
       </c>
       <c r="K84" t="s">
         <v>3908</v>
@@ -71826,24 +71805,24 @@
         <v>18</v>
       </c>
       <c r="M84" t="s">
-        <v>662</v>
+        <v>939</v>
       </c>
       <c r="N84" t="s">
-        <v>32</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="7" t="s">
-        <v>3964</v>
+        <v>3959</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1390</v>
+        <v>1447</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>1391</v>
+        <v>1448</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1392</v>
+        <v>88</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>652</v>
@@ -71861,7 +71840,7 @@
         <v>3906</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>3907</v>
+        <v>3933</v>
       </c>
       <c r="K86" t="s">
         <v>3908</v>
@@ -71870,24 +71849,24 @@
         <v>18</v>
       </c>
       <c r="M86" t="s">
-        <v>3130</v>
+        <v>964</v>
       </c>
       <c r="N86" t="s">
-        <v>729</v>
+        <v>765</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="7" t="s">
-        <v>3965</v>
+        <v>3960</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1431</v>
+        <v>1445</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>1432</v>
+        <v>87</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1433</v>
+        <v>88</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>652</v>
@@ -71914,24 +71893,24 @@
         <v>18</v>
       </c>
       <c r="M88" t="s">
-        <v>939</v>
+        <v>141</v>
       </c>
       <c r="N88" t="s">
-        <v>574</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="7" t="s">
-        <v>3966</v>
+        <v>3961</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1447</v>
+        <v>1457</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>1448</v>
+        <v>144</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>88</v>
+        <v>1458</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>652</v>
@@ -71949,7 +71928,7 @@
         <v>3906</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>3933</v>
+        <v>3907</v>
       </c>
       <c r="K90" t="s">
         <v>3908</v>
@@ -71958,30 +71937,30 @@
         <v>18</v>
       </c>
       <c r="M90" t="s">
-        <v>964</v>
+        <v>272</v>
       </c>
       <c r="N90" t="s">
-        <v>765</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="7" t="s">
-        <v>3967</v>
+        <v>3962</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1445</v>
+        <v>1460</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>87</v>
+        <v>665</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>88</v>
+        <v>1461</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>652</v>
+        <v>1780</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>653</v>
+        <v>3931</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>652</v>
@@ -71999,27 +71978,27 @@
         <v>3908</v>
       </c>
       <c r="L92" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="M92" t="s">
-        <v>141</v>
+        <v>422</v>
       </c>
       <c r="N92" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="7" t="s">
-        <v>3968</v>
+        <v>3963</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1457</v>
+        <v>1470</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>144</v>
+        <v>835</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1458</v>
+        <v>1471</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>652</v>
@@ -72036,9 +72015,6 @@
       <c r="I94" s="8" t="s">
         <v>3906</v>
       </c>
-      <c r="J94" s="8" t="s">
-        <v>3907</v>
-      </c>
       <c r="K94" t="s">
         <v>3908</v>
       </c>
@@ -72046,30 +72022,30 @@
         <v>18</v>
       </c>
       <c r="M94" t="s">
-        <v>272</v>
+        <v>882</v>
       </c>
       <c r="N94" t="s">
-        <v>21</v>
+        <v>716</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="7" t="s">
-        <v>3969</v>
+        <v>3964</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1460</v>
+        <v>1484</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>665</v>
+        <v>1485</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1461</v>
+        <v>1486</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>1780</v>
+        <v>652</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>3931</v>
+        <v>653</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>652</v>
@@ -72087,27 +72063,27 @@
         <v>3908</v>
       </c>
       <c r="L96" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="M96" t="s">
-        <v>422</v>
+        <v>964</v>
       </c>
       <c r="N96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="7" t="s">
-        <v>3970</v>
+        <v>3965</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1470</v>
+        <v>1514</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>835</v>
+        <v>1515</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1471</v>
+        <v>1516</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>652</v>
@@ -72124,6 +72100,9 @@
       <c r="I98" s="8" t="s">
         <v>3906</v>
       </c>
+      <c r="J98" s="8" t="s">
+        <v>3907</v>
+      </c>
       <c r="K98" t="s">
         <v>3908</v>
       </c>
@@ -72131,24 +72110,24 @@
         <v>18</v>
       </c>
       <c r="M98" t="s">
-        <v>882</v>
+        <v>1517</v>
       </c>
       <c r="N98" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:16">
       <c r="A100" s="7" t="s">
-        <v>3971</v>
+        <v>3966</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1484</v>
+        <v>1519</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>1485</v>
+        <v>1061</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1486</v>
+        <v>1520</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>652</v>
@@ -72166,7 +72145,7 @@
         <v>3906</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>3907</v>
+        <v>3933</v>
       </c>
       <c r="K100" t="s">
         <v>3908</v>
@@ -72175,24 +72154,24 @@
         <v>18</v>
       </c>
       <c r="M100" t="s">
-        <v>964</v>
+        <v>3967</v>
       </c>
       <c r="N100" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="7" t="s">
-        <v>3972</v>
+        <v>3968</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>1514</v>
+        <v>1534</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>1515</v>
+        <v>364</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1516</v>
+        <v>1535</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>652</v>
@@ -72216,27 +72195,27 @@
         <v>3908</v>
       </c>
       <c r="L102" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="M102" t="s">
-        <v>1517</v>
+        <v>751</v>
       </c>
       <c r="N102" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="7" t="s">
-        <v>3973</v>
+        <v>3969</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1519</v>
+        <v>1551</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>1061</v>
+        <v>1552</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1520</v>
+        <v>1553</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>652</v>
@@ -72254,7 +72233,7 @@
         <v>3906</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>3933</v>
+        <v>3942</v>
       </c>
       <c r="K104" t="s">
         <v>3908</v>
@@ -72263,24 +72242,24 @@
         <v>18</v>
       </c>
       <c r="M104" t="s">
-        <v>3974</v>
+        <v>141</v>
       </c>
       <c r="N104" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="7" t="s">
-        <v>3975</v>
+        <v>3970</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1534</v>
+        <v>1567</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>364</v>
+        <v>1568</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1535</v>
+        <v>1569</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>652</v>
@@ -72304,27 +72283,27 @@
         <v>3908</v>
       </c>
       <c r="L106" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="M106" t="s">
-        <v>751</v>
+        <v>1406</v>
       </c>
       <c r="N106" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" s="7" t="s">
-        <v>3976</v>
+        <v>3971</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>1551</v>
+        <v>1609</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>1552</v>
+        <v>29</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1553</v>
+        <v>1610</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>652</v>
@@ -72342,7 +72321,7 @@
         <v>3906</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>3942</v>
+        <v>3907</v>
       </c>
       <c r="K108" t="s">
         <v>3908</v>
@@ -72351,24 +72330,24 @@
         <v>18</v>
       </c>
       <c r="M108" t="s">
-        <v>141</v>
+        <v>1846</v>
       </c>
       <c r="N108" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="7" t="s">
-        <v>3977</v>
+        <v>3972</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>1567</v>
+        <v>1622</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>1568</v>
+        <v>1128</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1569</v>
+        <v>1623</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>652</v>
@@ -72386,7 +72365,7 @@
         <v>3906</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>3907</v>
+        <v>3933</v>
       </c>
       <c r="K110" t="s">
         <v>3908</v>
@@ -72395,24 +72374,24 @@
         <v>18</v>
       </c>
       <c r="M110" t="s">
-        <v>1406</v>
+        <v>997</v>
       </c>
       <c r="N110" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" s="7" t="s">
-        <v>3978</v>
+        <v>3973</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>1609</v>
+        <v>1630</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>29</v>
+        <v>607</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1610</v>
+        <v>1631</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>652</v>
@@ -72427,36 +72406,39 @@
         <v>653</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>3906</v>
+        <v>23</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>3907</v>
+        <v>3935</v>
       </c>
       <c r="K112" t="s">
         <v>3908</v>
       </c>
       <c r="L112" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M112" t="s">
-        <v>1846</v>
+        <v>3974</v>
       </c>
       <c r="N112" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16">
+        <v>809</v>
+      </c>
+      <c r="P112" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="7" t="s">
-        <v>3979</v>
+        <v>3975</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1622</v>
+        <v>1668</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>1128</v>
+        <v>382</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1623</v>
+        <v>1669</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>652</v>
@@ -72474,7 +72456,7 @@
         <v>3906</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>3933</v>
+        <v>3907</v>
       </c>
       <c r="K114" t="s">
         <v>3908</v>
@@ -72483,24 +72465,24 @@
         <v>18</v>
       </c>
       <c r="M114" t="s">
-        <v>997</v>
+        <v>1670</v>
       </c>
       <c r="N114" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="7" t="s">
-        <v>3980</v>
+        <v>3976</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>1630</v>
+        <v>1691</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>607</v>
+        <v>167</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1631</v>
+        <v>168</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>652</v>
@@ -72515,39 +72497,36 @@
         <v>653</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>23</v>
+        <v>3906</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>3935</v>
+        <v>3907</v>
       </c>
       <c r="K116" t="s">
         <v>3908</v>
       </c>
       <c r="L116" t="s">
-        <v>70</v>
+        <v>366</v>
       </c>
       <c r="M116" t="s">
-        <v>3981</v>
+        <v>751</v>
       </c>
       <c r="N116" t="s">
-        <v>809</v>
-      </c>
-      <c r="P116" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="7" t="s">
-        <v>3982</v>
+        <v>3977</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1668</v>
+        <v>1693</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>382</v>
+        <v>1694</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1669</v>
+        <v>1695</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>652</v>
@@ -72574,24 +72553,24 @@
         <v>18</v>
       </c>
       <c r="M118" t="s">
-        <v>1670</v>
+        <v>2341</v>
       </c>
       <c r="N118" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="7" t="s">
-        <v>3983</v>
+        <v>3978</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1691</v>
+        <v>1714</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>167</v>
+        <v>1715</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>168</v>
+        <v>1716</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>652</v>
@@ -72615,27 +72594,27 @@
         <v>3908</v>
       </c>
       <c r="L120" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="M120" t="s">
-        <v>751</v>
+        <v>3979</v>
       </c>
       <c r="N120" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="7" t="s">
-        <v>3984</v>
+        <v>3980</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1693</v>
+        <v>1721</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>1694</v>
+        <v>56</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1695</v>
+        <v>92</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>652</v>
@@ -72662,24 +72641,24 @@
         <v>18</v>
       </c>
       <c r="M122" t="s">
-        <v>2341</v>
+        <v>1722</v>
       </c>
       <c r="N122" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="7" t="s">
-        <v>3985</v>
+        <v>3981</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>1714</v>
+        <v>1719</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>1715</v>
+        <v>91</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1716</v>
+        <v>92</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>652</v>
@@ -72706,24 +72685,24 @@
         <v>18</v>
       </c>
       <c r="M124" t="s">
-        <v>3986</v>
+        <v>367</v>
       </c>
       <c r="N124" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="7" t="s">
-        <v>3987</v>
+        <v>3982</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>1721</v>
+        <v>1746</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>56</v>
+        <v>1747</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>92</v>
+        <v>1748</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>652</v>
@@ -72750,24 +72729,24 @@
         <v>18</v>
       </c>
       <c r="M126" t="s">
-        <v>1722</v>
+        <v>737</v>
       </c>
       <c r="N126" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="7" t="s">
-        <v>3988</v>
+        <v>3983</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>1719</v>
+        <v>1767</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>91</v>
+        <v>1128</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>92</v>
+        <v>1768</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>652</v>
@@ -72794,24 +72773,24 @@
         <v>18</v>
       </c>
       <c r="M128" t="s">
-        <v>367</v>
+        <v>2499</v>
       </c>
       <c r="N128" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="7" t="s">
-        <v>3989</v>
+        <v>3984</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>1746</v>
+        <v>1802</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>1747</v>
+        <v>1803</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1748</v>
+        <v>1804</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>652</v>
@@ -72829,33 +72808,33 @@
         <v>3906</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>3907</v>
+        <v>3942</v>
       </c>
       <c r="K130" t="s">
         <v>3908</v>
       </c>
       <c r="L130" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="M130" t="s">
-        <v>737</v>
+        <v>616</v>
       </c>
       <c r="N130" t="s">
-        <v>738</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="7" t="s">
-        <v>3990</v>
+        <v>3985</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>1767</v>
+        <v>1806</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>1128</v>
+        <v>420</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1768</v>
+        <v>421</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>652</v>
@@ -72879,10 +72858,10 @@
         <v>3908</v>
       </c>
       <c r="L132" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="M132" t="s">
-        <v>2499</v>
+        <v>448</v>
       </c>
       <c r="N132" t="s">
         <v>21</v>
@@ -72890,16 +72869,16 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="7" t="s">
-        <v>3991</v>
+        <v>3986</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>1802</v>
+        <v>1839</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>1803</v>
+        <v>607</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1804</v>
+        <v>1836</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>652</v>
@@ -72917,33 +72896,33 @@
         <v>3906</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>3942</v>
+        <v>3907</v>
       </c>
       <c r="K134" t="s">
         <v>3908</v>
       </c>
       <c r="L134" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="M134" t="s">
-        <v>616</v>
+        <v>1837</v>
       </c>
       <c r="N134" t="s">
-        <v>21</v>
+        <v>465</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="7" t="s">
-        <v>3992</v>
+        <v>3987</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>1806</v>
+        <v>1835</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>420</v>
+        <v>290</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>421</v>
+        <v>1836</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>652</v>
@@ -72967,27 +72946,27 @@
         <v>3908</v>
       </c>
       <c r="L136" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="M136" t="s">
-        <v>448</v>
+        <v>1837</v>
       </c>
       <c r="N136" t="s">
-        <v>21</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="7" t="s">
-        <v>3993</v>
+        <v>3988</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>607</v>
+        <v>214</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1836</v>
+        <v>215</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>652</v>
@@ -73005,7 +72984,7 @@
         <v>3906</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>3907</v>
+        <v>3942</v>
       </c>
       <c r="K138" t="s">
         <v>3908</v>
@@ -73014,24 +72993,24 @@
         <v>18</v>
       </c>
       <c r="M138" t="s">
-        <v>1837</v>
+        <v>255</v>
       </c>
       <c r="N138" t="s">
-        <v>465</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="7" t="s">
-        <v>3994</v>
+        <v>3989</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>1835</v>
+        <v>1848</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>290</v>
+        <v>826</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1836</v>
+        <v>1849</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>652</v>
@@ -73049,7 +73028,7 @@
         <v>3906</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>3907</v>
+        <v>3933</v>
       </c>
       <c r="K140" t="s">
         <v>3908</v>
@@ -73058,24 +73037,24 @@
         <v>18</v>
       </c>
       <c r="M140" t="s">
-        <v>1837</v>
+        <v>3979</v>
       </c>
       <c r="N140" t="s">
-        <v>465</v>
+        <v>765</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="7" t="s">
-        <v>3995</v>
+        <v>3990</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>1841</v>
+        <v>1852</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>215</v>
+        <v>1853</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>652</v>
@@ -73093,7 +73072,7 @@
         <v>3906</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>3942</v>
+        <v>3907</v>
       </c>
       <c r="K142" t="s">
         <v>3908</v>
@@ -73102,24 +73081,24 @@
         <v>18</v>
       </c>
       <c r="M142" t="s">
-        <v>255</v>
+        <v>3979</v>
       </c>
       <c r="N142" t="s">
-        <v>21</v>
+        <v>765</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="7" t="s">
-        <v>3996</v>
+        <v>3991</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>1848</v>
+        <v>1859</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>826</v>
+        <v>431</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1849</v>
+        <v>432</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>652</v>
@@ -73137,33 +73116,33 @@
         <v>3906</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>3933</v>
+        <v>3907</v>
       </c>
       <c r="K144" t="s">
         <v>3908</v>
       </c>
       <c r="L144" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="M144" t="s">
-        <v>3986</v>
+        <v>448</v>
       </c>
       <c r="N144" t="s">
-        <v>765</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="7" t="s">
-        <v>3997</v>
+        <v>3992</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>1852</v>
+        <v>1861</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>1853</v>
+        <v>1862</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>652</v>
@@ -73190,24 +73169,24 @@
         <v>18</v>
       </c>
       <c r="M146" t="s">
-        <v>3986</v>
+        <v>939</v>
       </c>
       <c r="N146" t="s">
-        <v>765</v>
+        <v>574</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="7" t="s">
-        <v>3998</v>
+        <v>3993</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>1859</v>
+        <v>1873</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>431</v>
+        <v>1874</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>432</v>
+        <v>1875</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>652</v>
@@ -73231,27 +73210,27 @@
         <v>3908</v>
       </c>
       <c r="L148" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="M148" t="s">
-        <v>448</v>
+        <v>2457</v>
       </c>
       <c r="N148" t="s">
-        <v>21</v>
+        <v>716</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="7" t="s">
-        <v>3999</v>
+        <v>3994</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>1861</v>
+        <v>1920</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>148</v>
+        <v>399</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>1862</v>
+        <v>1921</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>652</v>
@@ -73278,24 +73257,24 @@
         <v>18</v>
       </c>
       <c r="M150" t="s">
-        <v>939</v>
+        <v>3995</v>
       </c>
       <c r="N150" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="7" t="s">
-        <v>4000</v>
+        <v>3996</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>1873</v>
+        <v>1923</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>1874</v>
+        <v>690</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>1875</v>
+        <v>1924</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>652</v>
@@ -73322,24 +73301,24 @@
         <v>18</v>
       </c>
       <c r="M152" t="s">
-        <v>2457</v>
+        <v>283</v>
       </c>
       <c r="N152" t="s">
-        <v>716</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="7" t="s">
-        <v>4001</v>
+        <v>3997</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>1920</v>
+        <v>1965</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>399</v>
+        <v>977</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>1921</v>
+        <v>1960</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>652</v>
@@ -73366,24 +73345,24 @@
         <v>18</v>
       </c>
       <c r="M154" t="s">
-        <v>4002</v>
+        <v>3998</v>
       </c>
       <c r="N154" t="s">
-        <v>560</v>
+        <v>707</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="7" t="s">
-        <v>4003</v>
+        <v>3999</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>1923</v>
+        <v>1979</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>690</v>
+        <v>1980</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>1924</v>
+        <v>1981</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>652</v>
@@ -73401,7 +73380,7 @@
         <v>3906</v>
       </c>
       <c r="J156" s="8" t="s">
-        <v>3907</v>
+        <v>3933</v>
       </c>
       <c r="K156" t="s">
         <v>3908</v>
@@ -73410,24 +73389,24 @@
         <v>18</v>
       </c>
       <c r="M156" t="s">
-        <v>283</v>
+        <v>3000</v>
       </c>
       <c r="N156" t="s">
-        <v>38</v>
+        <v>574</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="7" t="s">
-        <v>4004</v>
+        <v>4000</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>1965</v>
+        <v>2005</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>977</v>
+        <v>771</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1960</v>
+        <v>2006</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>652</v>
@@ -73454,24 +73433,24 @@
         <v>18</v>
       </c>
       <c r="M158" t="s">
-        <v>4005</v>
+        <v>1384</v>
       </c>
       <c r="N158" t="s">
-        <v>707</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="7" t="s">
-        <v>4006</v>
+        <v>4001</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>1979</v>
+        <v>2023</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>1980</v>
+        <v>2024</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1981</v>
+        <v>2021</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>652</v>
@@ -73489,7 +73468,7 @@
         <v>3906</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>3933</v>
+        <v>3907</v>
       </c>
       <c r="K160" t="s">
         <v>3908</v>
@@ -73498,7 +73477,7 @@
         <v>18</v>
       </c>
       <c r="M160" t="s">
-        <v>3000</v>
+        <v>943</v>
       </c>
       <c r="N160" t="s">
         <v>574</v>
@@ -73506,16 +73485,16 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="7" t="s">
-        <v>4007</v>
+        <v>4002</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>771</v>
+        <v>290</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>2006</v>
+        <v>2021</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>652</v>
@@ -73542,24 +73521,24 @@
         <v>18</v>
       </c>
       <c r="M162" t="s">
-        <v>1384</v>
+        <v>4003</v>
       </c>
       <c r="N162" t="s">
-        <v>32</v>
+        <v>574</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="7" t="s">
-        <v>4008</v>
+        <v>4004</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>2023</v>
+        <v>2054</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>2024</v>
+        <v>148</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>2021</v>
+        <v>2055</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>652</v>
@@ -73586,24 +73565,24 @@
         <v>18</v>
       </c>
       <c r="M164" t="s">
-        <v>943</v>
+        <v>224</v>
       </c>
       <c r="N164" t="s">
-        <v>574</v>
+        <v>32</v>
       </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="7" t="s">
-        <v>4009</v>
+        <v>4005</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>2020</v>
+        <v>2074</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>290</v>
+        <v>2075</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>2021</v>
+        <v>2076</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>652</v>
@@ -73630,24 +73609,24 @@
         <v>18</v>
       </c>
       <c r="M166" t="s">
-        <v>4010</v>
+        <v>939</v>
       </c>
       <c r="N166" t="s">
-        <v>574</v>
+        <v>458</v>
       </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="7" t="s">
-        <v>4011</v>
+        <v>4006</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>2054</v>
+        <v>2083</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>148</v>
+        <v>601</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>2055</v>
+        <v>602</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>652</v>
@@ -73674,24 +73653,24 @@
         <v>18</v>
       </c>
       <c r="M168" t="s">
-        <v>224</v>
+        <v>814</v>
       </c>
       <c r="N168" t="s">
-        <v>32</v>
+        <v>458</v>
       </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="7" t="s">
-        <v>4012</v>
+        <v>4007</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>2074</v>
+        <v>2091</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>2075</v>
+        <v>917</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>2076</v>
+        <v>2092</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>652</v>
@@ -73709,7 +73688,7 @@
         <v>3906</v>
       </c>
       <c r="J170" s="8" t="s">
-        <v>3907</v>
+        <v>3942</v>
       </c>
       <c r="K170" t="s">
         <v>3908</v>
@@ -73718,24 +73697,24 @@
         <v>18</v>
       </c>
       <c r="M170" t="s">
-        <v>939</v>
+        <v>272</v>
       </c>
       <c r="N170" t="s">
-        <v>458</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="7" t="s">
-        <v>4013</v>
+        <v>4008</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>2083</v>
+        <v>2116</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>601</v>
+        <v>2117</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>602</v>
+        <v>350</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>652</v>
@@ -73762,24 +73741,24 @@
         <v>18</v>
       </c>
       <c r="M172" t="s">
-        <v>814</v>
+        <v>33</v>
       </c>
       <c r="N172" t="s">
-        <v>458</v>
+        <v>93</v>
       </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="7" t="s">
-        <v>4014</v>
+        <v>4009</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>2091</v>
+        <v>2119</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>917</v>
+        <v>771</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>2092</v>
+        <v>2120</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>652</v>
@@ -73797,7 +73776,7 @@
         <v>3906</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>3942</v>
+        <v>3907</v>
       </c>
       <c r="K174" t="s">
         <v>3908</v>
@@ -73806,24 +73785,24 @@
         <v>18</v>
       </c>
       <c r="M174" t="s">
-        <v>272</v>
+        <v>2200</v>
       </c>
       <c r="N174" t="s">
-        <v>21</v>
+        <v>729</v>
       </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="7" t="s">
-        <v>4015</v>
+        <v>4010</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>2116</v>
+        <v>2122</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>2117</v>
+        <v>79</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>350</v>
+        <v>2120</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>652</v>
@@ -73850,24 +73829,24 @@
         <v>18</v>
       </c>
       <c r="M176" t="s">
-        <v>33</v>
+        <v>2200</v>
       </c>
       <c r="N176" t="s">
-        <v>93</v>
+        <v>729</v>
       </c>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" s="7" t="s">
-        <v>4016</v>
+        <v>4011</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>2119</v>
+        <v>2124</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>771</v>
+        <v>310</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>2120</v>
+        <v>311</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>652</v>
@@ -73885,33 +73864,36 @@
         <v>3906</v>
       </c>
       <c r="J178" s="8" t="s">
-        <v>3907</v>
+        <v>3933</v>
       </c>
       <c r="K178" t="s">
         <v>3908</v>
       </c>
       <c r="L178" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M178" t="s">
-        <v>2200</v>
+        <v>307</v>
       </c>
       <c r="N178" t="s">
-        <v>729</v>
+        <v>33</v>
+      </c>
+      <c r="P178" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" s="7" t="s">
-        <v>4017</v>
+        <v>4012</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>2122</v>
+        <v>2164</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>79</v>
+        <v>2165</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>2120</v>
+        <v>2166</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>652</v>
@@ -73938,24 +73920,24 @@
         <v>18</v>
       </c>
       <c r="M180" t="s">
-        <v>2200</v>
+        <v>2409</v>
       </c>
       <c r="N180" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" s="7" t="s">
-        <v>4018</v>
+        <v>4013</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>2124</v>
+        <v>2198</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>310</v>
+        <v>1480</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>311</v>
+        <v>2199</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>652</v>
@@ -73972,37 +73954,31 @@
       <c r="I182" s="8" t="s">
         <v>3906</v>
       </c>
-      <c r="J182" s="8" t="s">
-        <v>3933</v>
-      </c>
       <c r="K182" t="s">
         <v>3908</v>
       </c>
       <c r="L182" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M182" t="s">
-        <v>307</v>
+        <v>2772</v>
       </c>
       <c r="N182" t="s">
-        <v>33</v>
-      </c>
-      <c r="P182" t="s">
-        <v>423</v>
+        <v>729</v>
       </c>
     </row>
     <row r="184" spans="1:16">
       <c r="A184" s="7" t="s">
-        <v>4019</v>
+        <v>4014</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>2164</v>
+        <v>2217</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>2165</v>
+        <v>75</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>2166</v>
+        <v>2218</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>652</v>
@@ -74029,24 +74005,24 @@
         <v>18</v>
       </c>
       <c r="M184" t="s">
-        <v>2409</v>
+        <v>4015</v>
       </c>
       <c r="N184" t="s">
-        <v>725</v>
+        <v>859</v>
       </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" s="7" t="s">
-        <v>4020</v>
+        <v>4016</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>2198</v>
+        <v>4017</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>1480</v>
+        <v>690</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>2199</v>
+        <v>2240</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>652</v>
@@ -74063,31 +74039,34 @@
       <c r="I186" s="8" t="s">
         <v>3906</v>
       </c>
+      <c r="J186" s="8" t="s">
+        <v>3935</v>
+      </c>
       <c r="K186" t="s">
         <v>3908</v>
       </c>
       <c r="L186" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="M186" t="s">
-        <v>2772</v>
+        <v>104</v>
       </c>
       <c r="N186" t="s">
-        <v>729</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" s="7" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>4019</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>4020</v>
+      </c>
+      <c r="D188" s="8" t="s">
         <v>4021</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>2217</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>2218</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>652</v>
@@ -74104,9 +74083,6 @@
       <c r="I188" s="8" t="s">
         <v>3906</v>
       </c>
-      <c r="J188" s="8" t="s">
-        <v>3907</v>
-      </c>
       <c r="K188" t="s">
         <v>3908</v>
       </c>
@@ -74114,24 +74090,24 @@
         <v>18</v>
       </c>
       <c r="M188" t="s">
-        <v>4022</v>
+        <v>1732</v>
       </c>
       <c r="N188" t="s">
-        <v>859</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="190" spans="1:16">
       <c r="A190" s="7" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>4024</v>
+        <v>2266</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>690</v>
+        <v>2267</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>2240</v>
+        <v>2268</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>652</v>
@@ -74148,34 +74124,31 @@
       <c r="I190" s="8" t="s">
         <v>3906</v>
       </c>
-      <c r="J190" s="8" t="s">
-        <v>3935</v>
-      </c>
       <c r="K190" t="s">
         <v>3908</v>
       </c>
       <c r="L190" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="M190" t="s">
-        <v>104</v>
+        <v>846</v>
       </c>
       <c r="N190" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" s="7" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>4026</v>
+        <v>2270</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>4027</v>
+        <v>2271</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>4028</v>
+        <v>2268</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>652</v>
@@ -74190,7 +74163,10 @@
         <v>653</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>3906</v>
+        <v>23</v>
+      </c>
+      <c r="J192" s="8" t="s">
+        <v>3935</v>
       </c>
       <c r="K192" t="s">
         <v>3908</v>
@@ -74199,30 +74175,30 @@
         <v>18</v>
       </c>
       <c r="M192" t="s">
-        <v>1732</v>
+        <v>4024</v>
       </c>
       <c r="N192" t="s">
-        <v>1064</v>
+        <v>553</v>
       </c>
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="7" t="s">
-        <v>4029</v>
+        <v>4025</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>2266</v>
+        <v>2276</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>2267</v>
+        <v>343</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>2268</v>
+        <v>340</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>652</v>
+        <v>3950</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>653</v>
+        <v>42</v>
       </c>
       <c r="G194" s="8" t="s">
         <v>652</v>
@@ -74233,31 +74209,34 @@
       <c r="I194" s="8" t="s">
         <v>3906</v>
       </c>
+      <c r="J194" s="8" t="s">
+        <v>3935</v>
+      </c>
       <c r="K194" t="s">
         <v>3908</v>
       </c>
       <c r="L194" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="M194" t="s">
-        <v>846</v>
+        <v>20</v>
       </c>
       <c r="N194" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="7" t="s">
-        <v>4030</v>
+        <v>4026</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>2271</v>
+        <v>310</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>2268</v>
+        <v>340</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>652</v>
@@ -74272,7 +74251,7 @@
         <v>653</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>23</v>
+        <v>3906</v>
       </c>
       <c r="J196" s="8" t="s">
         <v>3935</v>
@@ -74284,30 +74263,30 @@
         <v>18</v>
       </c>
       <c r="M196" t="s">
-        <v>4031</v>
+        <v>423</v>
       </c>
       <c r="N196" t="s">
-        <v>553</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="7" t="s">
-        <v>4032</v>
+        <v>4027</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>343</v>
+        <v>1128</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>340</v>
+        <v>2279</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>3957</v>
+        <v>652</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>42</v>
+        <v>653</v>
       </c>
       <c r="G198" s="8" t="s">
         <v>652</v>
@@ -74319,33 +74298,33 @@
         <v>3906</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>3935</v>
+        <v>3907</v>
       </c>
       <c r="K198" t="s">
         <v>3908</v>
       </c>
       <c r="L198" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="M198" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="N198" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="7" t="s">
-        <v>4033</v>
+        <v>4028</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>2274</v>
+        <v>2282</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>310</v>
+        <v>36</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>340</v>
+        <v>2279</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>652</v>
@@ -74363,7 +74342,7 @@
         <v>3906</v>
       </c>
       <c r="J200" s="8" t="s">
-        <v>3935</v>
+        <v>3907</v>
       </c>
       <c r="K200" t="s">
         <v>3908</v>
@@ -74372,24 +74351,24 @@
         <v>18</v>
       </c>
       <c r="M200" t="s">
-        <v>423</v>
+        <v>72</v>
       </c>
       <c r="N200" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="7" t="s">
-        <v>4034</v>
+        <v>4029</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>2278</v>
+        <v>2307</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>1128</v>
+        <v>2308</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>2279</v>
+        <v>2309</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>652</v>
@@ -74416,24 +74395,24 @@
         <v>18</v>
       </c>
       <c r="M202" t="s">
-        <v>126</v>
+        <v>3035</v>
       </c>
       <c r="N202" t="s">
-        <v>127</v>
+        <v>458</v>
       </c>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="7" t="s">
-        <v>4035</v>
+        <v>4030</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>2282</v>
+        <v>2330</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>36</v>
+        <v>1061</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>2279</v>
+        <v>2331</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>652</v>
@@ -74460,24 +74439,24 @@
         <v>18</v>
       </c>
       <c r="M204" t="s">
-        <v>72</v>
+        <v>2332</v>
       </c>
       <c r="N204" t="s">
-        <v>126</v>
+        <v>707</v>
       </c>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="7" t="s">
-        <v>4036</v>
+        <v>4031</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>2307</v>
+        <v>2404</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>2308</v>
+        <v>220</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>2309</v>
+        <v>2405</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>652</v>
@@ -74504,24 +74483,24 @@
         <v>18</v>
       </c>
       <c r="M206" t="s">
-        <v>3035</v>
+        <v>662</v>
       </c>
       <c r="N206" t="s">
-        <v>458</v>
+        <v>729</v>
       </c>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="7" t="s">
-        <v>4037</v>
+        <v>4032</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>2330</v>
+        <v>2411</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>1061</v>
+        <v>190</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>2331</v>
+        <v>2405</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>652</v>
@@ -74548,21 +74527,21 @@
         <v>18</v>
       </c>
       <c r="M208" t="s">
-        <v>2332</v>
+        <v>3967</v>
       </c>
       <c r="N208" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
     </row>
     <row r="210" spans="1:16">
       <c r="A210" s="7" t="s">
-        <v>4038</v>
+        <v>4033</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>220</v>
+        <v>2408</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>2405</v>
@@ -74592,24 +74571,24 @@
         <v>18</v>
       </c>
       <c r="M210" t="s">
-        <v>662</v>
+        <v>2409</v>
       </c>
       <c r="N210" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
     </row>
     <row r="212" spans="1:16">
       <c r="A212" s="7" t="s">
-        <v>4039</v>
+        <v>4034</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>2411</v>
+        <v>2419</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>190</v>
+        <v>364</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>2405</v>
+        <v>365</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>652</v>
@@ -74627,33 +74606,33 @@
         <v>3906</v>
       </c>
       <c r="J212" s="8" t="s">
-        <v>3907</v>
+        <v>3935</v>
       </c>
       <c r="K212" t="s">
         <v>3908</v>
       </c>
       <c r="L212" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="M212" t="s">
-        <v>3974</v>
+        <v>20</v>
       </c>
       <c r="N212" t="s">
-        <v>729</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:16">
       <c r="A214" s="7" t="s">
-        <v>4040</v>
+        <v>4035</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>2407</v>
+        <v>2441</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>2408</v>
+        <v>214</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>2405</v>
+        <v>2442</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>652</v>
@@ -74671,7 +74650,7 @@
         <v>3906</v>
       </c>
       <c r="J214" s="8" t="s">
-        <v>3907</v>
+        <v>3933</v>
       </c>
       <c r="K214" t="s">
         <v>3908</v>
@@ -74680,24 +74659,24 @@
         <v>18</v>
       </c>
       <c r="M214" t="s">
-        <v>2409</v>
+        <v>1406</v>
       </c>
       <c r="N214" t="s">
-        <v>738</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:16">
       <c r="A216" s="7" t="s">
-        <v>4041</v>
+        <v>4036</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>2419</v>
+        <v>2455</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>364</v>
+        <v>267</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>365</v>
+        <v>2456</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>652</v>
@@ -74715,33 +74694,33 @@
         <v>3906</v>
       </c>
       <c r="J216" s="8" t="s">
-        <v>3935</v>
+        <v>3907</v>
       </c>
       <c r="K216" t="s">
         <v>3908</v>
       </c>
       <c r="L216" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="M216" t="s">
-        <v>20</v>
+        <v>1472</v>
       </c>
       <c r="N216" t="s">
-        <v>21</v>
+        <v>716</v>
       </c>
     </row>
     <row r="218" spans="1:16">
       <c r="A218" s="7" t="s">
-        <v>4042</v>
+        <v>4037</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>2441</v>
+        <v>4038</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>214</v>
+        <v>4039</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>2442</v>
+        <v>550</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>652</v>
@@ -74759,33 +74738,36 @@
         <v>3906</v>
       </c>
       <c r="J218" s="8" t="s">
-        <v>3933</v>
+        <v>3907</v>
       </c>
       <c r="K218" t="s">
         <v>3908</v>
       </c>
       <c r="L218" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M218" t="s">
-        <v>1406</v>
+        <v>927</v>
       </c>
       <c r="N218" t="s">
-        <v>21</v>
+        <v>560</v>
+      </c>
+      <c r="P218" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="220" spans="1:16">
       <c r="A220" s="7" t="s">
-        <v>4043</v>
+        <v>4040</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>2455</v>
+        <v>2482</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>267</v>
+        <v>549</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>2456</v>
+        <v>550</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>652</v>
@@ -74809,27 +74791,30 @@
         <v>3908</v>
       </c>
       <c r="L220" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M220" t="s">
-        <v>1472</v>
+        <v>927</v>
       </c>
       <c r="N220" t="s">
-        <v>716</v>
+        <v>553</v>
+      </c>
+      <c r="P220" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="222" spans="1:16">
       <c r="A222" s="7" t="s">
-        <v>4044</v>
+        <v>4041</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>4045</v>
+        <v>2519</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>4046</v>
+        <v>2520</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>550</v>
+        <v>2521</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>652</v>
@@ -74853,30 +74838,27 @@
         <v>3908</v>
       </c>
       <c r="L222" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M222" t="s">
-        <v>927</v>
+        <v>2522</v>
       </c>
       <c r="N222" t="s">
-        <v>560</v>
-      </c>
-      <c r="P222" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
     </row>
     <row r="224" spans="1:16">
       <c r="A224" s="7" t="s">
-        <v>4047</v>
+        <v>4042</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>2482</v>
+        <v>2543</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>549</v>
+        <v>2544</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>550</v>
+        <v>2545</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>652</v>
@@ -74900,30 +74882,27 @@
         <v>3908</v>
       </c>
       <c r="L224" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M224" t="s">
-        <v>927</v>
+        <v>2280</v>
       </c>
       <c r="N224" t="s">
-        <v>553</v>
-      </c>
-      <c r="P224" t="s">
-        <v>423</v>
+        <v>560</v>
       </c>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="7" t="s">
-        <v>4048</v>
+        <v>4043</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>2519</v>
+        <v>4044</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>2520</v>
+        <v>2059</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>2521</v>
+        <v>4045</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>652</v>
@@ -74932,10 +74911,10 @@
         <v>653</v>
       </c>
       <c r="G226" s="8" t="s">
-        <v>652</v>
+        <v>4046</v>
       </c>
       <c r="H226" s="8" t="s">
-        <v>653</v>
+        <v>4047</v>
       </c>
       <c r="I226" s="8" t="s">
         <v>3906</v>
@@ -74950,30 +74929,30 @@
         <v>18</v>
       </c>
       <c r="M226" t="s">
-        <v>2522</v>
+        <v>1628</v>
       </c>
       <c r="N226" t="s">
-        <v>458</v>
+        <v>673</v>
       </c>
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="7" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>2543</v>
+        <v>2614</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>2544</v>
+        <v>2615</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>2545</v>
+        <v>2616</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>652</v>
+        <v>1780</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>653</v>
+        <v>3931</v>
       </c>
       <c r="G228" s="8" t="s">
         <v>652</v>
@@ -74985,7 +74964,7 @@
         <v>3906</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>3907</v>
+        <v>3933</v>
       </c>
       <c r="K228" t="s">
         <v>3908</v>
@@ -74994,24 +74973,24 @@
         <v>18</v>
       </c>
       <c r="M228" t="s">
-        <v>2280</v>
+        <v>3929</v>
       </c>
       <c r="N228" t="s">
-        <v>560</v>
+        <v>458</v>
       </c>
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="7" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>4051</v>
+        <v>2623</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>2059</v>
+        <v>2624</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>4052</v>
+        <v>2625</v>
       </c>
       <c r="E230" s="8" t="s">
         <v>652</v>
@@ -75020,17 +74999,14 @@
         <v>653</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>4053</v>
+        <v>652</v>
       </c>
       <c r="H230" s="8" t="s">
-        <v>4054</v>
+        <v>653</v>
       </c>
       <c r="I230" s="8" t="s">
         <v>3906</v>
       </c>
-      <c r="J230" s="8" t="s">
-        <v>3907</v>
-      </c>
       <c r="K230" t="s">
         <v>3908</v>
       </c>
@@ -75038,30 +75014,30 @@
         <v>18</v>
       </c>
       <c r="M230" t="s">
-        <v>1628</v>
+        <v>4050</v>
       </c>
       <c r="N230" t="s">
-        <v>673</v>
+        <v>465</v>
       </c>
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="7" t="s">
-        <v>4055</v>
+        <v>4051</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>2614</v>
+        <v>2629</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>2615</v>
+        <v>41</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>2616</v>
+        <v>2630</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>1780</v>
+        <v>652</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>3931</v>
+        <v>653</v>
       </c>
       <c r="G232" s="8" t="s">
         <v>652</v>
@@ -75073,7 +75049,7 @@
         <v>3906</v>
       </c>
       <c r="J232" s="8" t="s">
-        <v>3933</v>
+        <v>3907</v>
       </c>
       <c r="K232" t="s">
         <v>3908</v>
@@ -75082,7 +75058,7 @@
         <v>18</v>
       </c>
       <c r="M232" t="s">
-        <v>3929</v>
+        <v>1685</v>
       </c>
       <c r="N232" t="s">
         <v>458</v>
@@ -75090,22 +75066,22 @@
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="7" t="s">
-        <v>4056</v>
+        <v>4052</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>2623</v>
+        <v>2638</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>2624</v>
+        <v>2271</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>2625</v>
+        <v>2639</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>652</v>
+        <v>1780</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>653</v>
+        <v>3931</v>
       </c>
       <c r="G234" s="8" t="s">
         <v>652</v>
@@ -75116,6 +75092,9 @@
       <c r="I234" s="8" t="s">
         <v>3906</v>
       </c>
+      <c r="J234" s="8" t="s">
+        <v>3933</v>
+      </c>
       <c r="K234" t="s">
         <v>3908</v>
       </c>
@@ -75123,24 +75102,24 @@
         <v>18</v>
       </c>
       <c r="M234" t="s">
-        <v>4057</v>
+        <v>692</v>
       </c>
       <c r="N234" t="s">
-        <v>465</v>
+        <v>574</v>
       </c>
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="7" t="s">
-        <v>4058</v>
+        <v>4053</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>2629</v>
+        <v>2648</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>41</v>
+        <v>917</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>2630</v>
+        <v>2649</v>
       </c>
       <c r="E236" s="8" t="s">
         <v>652</v>
@@ -75158,7 +75137,7 @@
         <v>3906</v>
       </c>
       <c r="J236" s="8" t="s">
-        <v>3907</v>
+        <v>3933</v>
       </c>
       <c r="K236" t="s">
         <v>3908</v>
@@ -75167,30 +75146,30 @@
         <v>18</v>
       </c>
       <c r="M236" t="s">
-        <v>1685</v>
+        <v>274</v>
       </c>
       <c r="N236" t="s">
-        <v>458</v>
+        <v>21</v>
       </c>
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="7" t="s">
-        <v>4059</v>
+        <v>4054</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>2638</v>
+        <v>2686</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>2271</v>
+        <v>56</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>2639</v>
+        <v>57</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>1780</v>
+        <v>652</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>3931</v>
+        <v>653</v>
       </c>
       <c r="G238" s="8" t="s">
         <v>652</v>
@@ -75202,7 +75181,7 @@
         <v>3906</v>
       </c>
       <c r="J238" s="8" t="s">
-        <v>3933</v>
+        <v>3907</v>
       </c>
       <c r="K238" t="s">
         <v>3908</v>
@@ -75211,24 +75190,24 @@
         <v>18</v>
       </c>
       <c r="M238" t="s">
-        <v>692</v>
+        <v>141</v>
       </c>
       <c r="N238" t="s">
-        <v>574</v>
+        <v>21</v>
       </c>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="7" t="s">
-        <v>4060</v>
+        <v>4055</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>2648</v>
+        <v>2688</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>917</v>
+        <v>60</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>2649</v>
+        <v>57</v>
       </c>
       <c r="E240" s="8" t="s">
         <v>652</v>
@@ -75246,7 +75225,7 @@
         <v>3906</v>
       </c>
       <c r="J240" s="8" t="s">
-        <v>3933</v>
+        <v>3907</v>
       </c>
       <c r="K240" t="s">
         <v>3908</v>
@@ -75255,7 +75234,7 @@
         <v>18</v>
       </c>
       <c r="M240" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="N240" t="s">
         <v>21</v>
@@ -75263,16 +75242,16 @@
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="7" t="s">
-        <v>4061</v>
+        <v>4056</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>2686</v>
+        <v>2712</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>56</v>
+        <v>479</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>57</v>
+        <v>480</v>
       </c>
       <c r="E242" s="8" t="s">
         <v>652</v>
@@ -75299,7 +75278,7 @@
         <v>18</v>
       </c>
       <c r="M242" t="s">
-        <v>141</v>
+        <v>423</v>
       </c>
       <c r="N242" t="s">
         <v>21</v>
@@ -75307,16 +75286,16 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="7" t="s">
-        <v>4062</v>
+        <v>4057</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>2688</v>
+        <v>2714</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>60</v>
+        <v>483</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>57</v>
+        <v>480</v>
       </c>
       <c r="E244" s="8" t="s">
         <v>652</v>
@@ -75343,7 +75322,7 @@
         <v>18</v>
       </c>
       <c r="M244" t="s">
-        <v>53</v>
+        <v>423</v>
       </c>
       <c r="N244" t="s">
         <v>21</v>
@@ -75351,16 +75330,16 @@
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="7" t="s">
-        <v>4063</v>
+        <v>4058</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>2712</v>
+        <v>2735</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>479</v>
+        <v>182</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>480</v>
+        <v>2733</v>
       </c>
       <c r="E246" s="8" t="s">
         <v>652</v>
@@ -75387,24 +75366,24 @@
         <v>18</v>
       </c>
       <c r="M246" t="s">
-        <v>423</v>
+        <v>3979</v>
       </c>
       <c r="N246" t="s">
-        <v>21</v>
+        <v>765</v>
       </c>
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="7" t="s">
-        <v>4064</v>
+        <v>4059</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>2714</v>
+        <v>2752</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>483</v>
+        <v>220</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>480</v>
+        <v>2753</v>
       </c>
       <c r="E248" s="8" t="s">
         <v>652</v>
@@ -75431,24 +75410,24 @@
         <v>18</v>
       </c>
       <c r="M248" t="s">
-        <v>423</v>
+        <v>217</v>
       </c>
       <c r="N248" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="250" spans="1:14">
       <c r="A250" s="7" t="s">
-        <v>4065</v>
+        <v>4060</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>2735</v>
+        <v>2755</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>182</v>
+        <v>515</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>2733</v>
+        <v>2753</v>
       </c>
       <c r="E250" s="8" t="s">
         <v>652</v>
@@ -75475,24 +75454,24 @@
         <v>18</v>
       </c>
       <c r="M250" t="s">
-        <v>3986</v>
+        <v>217</v>
       </c>
       <c r="N250" t="s">
-        <v>765</v>
+        <v>33</v>
       </c>
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="7" t="s">
-        <v>4066</v>
+        <v>4061</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>2752</v>
+        <v>2774</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>220</v>
+        <v>2775</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>2753</v>
+        <v>2776</v>
       </c>
       <c r="E252" s="8" t="s">
         <v>652</v>
@@ -75519,24 +75498,24 @@
         <v>18</v>
       </c>
       <c r="M252" t="s">
-        <v>217</v>
+        <v>662</v>
       </c>
       <c r="N252" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="7" t="s">
-        <v>4067</v>
+        <v>4062</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>2755</v>
+        <v>2778</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>515</v>
+        <v>91</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>2753</v>
+        <v>2776</v>
       </c>
       <c r="E254" s="8" t="s">
         <v>652</v>
@@ -75563,24 +75542,24 @@
         <v>18</v>
       </c>
       <c r="M254" t="s">
-        <v>217</v>
+        <v>3967</v>
       </c>
       <c r="N254" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="7" t="s">
-        <v>4068</v>
+        <v>4063</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>2774</v>
+        <v>2790</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>2775</v>
+        <v>1157</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>2776</v>
+        <v>2791</v>
       </c>
       <c r="E256" s="8" t="s">
         <v>652</v>
@@ -75598,7 +75577,7 @@
         <v>3906</v>
       </c>
       <c r="J256" s="8" t="s">
-        <v>3907</v>
+        <v>3933</v>
       </c>
       <c r="K256" t="s">
         <v>3908</v>
@@ -75607,24 +75586,24 @@
         <v>18</v>
       </c>
       <c r="M256" t="s">
-        <v>662</v>
+        <v>814</v>
       </c>
       <c r="N256" t="s">
-        <v>32</v>
+        <v>458</v>
       </c>
     </row>
     <row r="258" spans="1:16">
       <c r="A258" s="7" t="s">
-        <v>4069</v>
+        <v>4064</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>2778</v>
+        <v>2793</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>91</v>
+        <v>1587</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>2776</v>
+        <v>2794</v>
       </c>
       <c r="E258" s="8" t="s">
         <v>652</v>
@@ -75651,7 +75630,7 @@
         <v>18</v>
       </c>
       <c r="M258" t="s">
-        <v>3974</v>
+        <v>3967</v>
       </c>
       <c r="N258" t="s">
         <v>32</v>
@@ -75659,16 +75638,16 @@
     </row>
     <row r="260" spans="1:16">
       <c r="A260" s="7" t="s">
-        <v>4070</v>
+        <v>4065</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>2790</v>
+        <v>2799</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>1157</v>
+        <v>519</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>2791</v>
+        <v>2800</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>652</v>
@@ -75695,24 +75674,24 @@
         <v>18</v>
       </c>
       <c r="M260" t="s">
-        <v>814</v>
+        <v>1472</v>
       </c>
       <c r="N260" t="s">
-        <v>458</v>
+        <v>716</v>
       </c>
     </row>
     <row r="262" spans="1:16">
       <c r="A262" s="7" t="s">
-        <v>4071</v>
+        <v>4066</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>2793</v>
+        <v>4067</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>1587</v>
+        <v>937</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>2794</v>
+        <v>2811</v>
       </c>
       <c r="E262" s="8" t="s">
         <v>652</v>
@@ -75739,24 +75718,24 @@
         <v>18</v>
       </c>
       <c r="M262" t="s">
-        <v>3974</v>
+        <v>2928</v>
       </c>
       <c r="N262" t="s">
-        <v>32</v>
+        <v>716</v>
       </c>
     </row>
     <row r="264" spans="1:16">
       <c r="A264" s="7" t="s">
-        <v>4072</v>
+        <v>4068</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>2799</v>
+        <v>2810</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>519</v>
+        <v>977</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>2800</v>
+        <v>2811</v>
       </c>
       <c r="E264" s="8" t="s">
         <v>652</v>
@@ -75774,7 +75753,7 @@
         <v>3906</v>
       </c>
       <c r="J264" s="8" t="s">
-        <v>3933</v>
+        <v>3907</v>
       </c>
       <c r="K264" t="s">
         <v>3908</v>
@@ -75783,7 +75762,7 @@
         <v>18</v>
       </c>
       <c r="M264" t="s">
-        <v>1472</v>
+        <v>2928</v>
       </c>
       <c r="N264" t="s">
         <v>716</v>
@@ -75791,16 +75770,16 @@
     </row>
     <row r="266" spans="1:16">
       <c r="A266" s="7" t="s">
-        <v>4073</v>
+        <v>4069</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>4074</v>
+        <v>2837</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>937</v>
+        <v>2838</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>2811</v>
+        <v>2833</v>
       </c>
       <c r="E266" s="8" t="s">
         <v>652</v>
@@ -75817,9 +75796,6 @@
       <c r="I266" s="8" t="s">
         <v>3906</v>
       </c>
-      <c r="J266" s="8" t="s">
-        <v>3907</v>
-      </c>
       <c r="K266" t="s">
         <v>3908</v>
       </c>
@@ -75827,24 +75803,24 @@
         <v>18</v>
       </c>
       <c r="M266" t="s">
-        <v>2928</v>
+        <v>1434</v>
       </c>
       <c r="N266" t="s">
-        <v>716</v>
+        <v>458</v>
       </c>
     </row>
     <row r="268" spans="1:16">
       <c r="A268" s="7" t="s">
-        <v>4075</v>
+        <v>4070</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>2810</v>
+        <v>2865</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>977</v>
+        <v>2866</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>2811</v>
+        <v>2867</v>
       </c>
       <c r="E268" s="8" t="s">
         <v>652</v>
@@ -75871,24 +75847,30 @@
         <v>18</v>
       </c>
       <c r="M268" t="s">
-        <v>2928</v>
+        <v>849</v>
       </c>
       <c r="N268" t="s">
-        <v>716</v>
+        <v>574</v>
+      </c>
+      <c r="O268" t="s">
+        <v>2756</v>
+      </c>
+      <c r="P268" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="270" spans="1:16">
       <c r="A270" s="7" t="s">
-        <v>4076</v>
+        <v>4071</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>2837</v>
+        <v>2890</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>2838</v>
+        <v>79</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>2833</v>
+        <v>2891</v>
       </c>
       <c r="E270" s="8" t="s">
         <v>652</v>
@@ -75905,6 +75887,9 @@
       <c r="I270" s="8" t="s">
         <v>3906</v>
       </c>
+      <c r="J270" s="8" t="s">
+        <v>3907</v>
+      </c>
       <c r="K270" t="s">
         <v>3908</v>
       </c>
@@ -75912,24 +75897,24 @@
         <v>18</v>
       </c>
       <c r="M270" t="s">
-        <v>1434</v>
+        <v>2029</v>
       </c>
       <c r="N270" t="s">
-        <v>458</v>
+        <v>738</v>
       </c>
     </row>
     <row r="272" spans="1:16">
       <c r="A272" s="7" t="s">
-        <v>4077</v>
+        <v>4072</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>2865</v>
+        <v>2897</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>2866</v>
+        <v>1401</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>2867</v>
+        <v>2898</v>
       </c>
       <c r="E272" s="8" t="s">
         <v>652</v>
@@ -75946,9 +75931,6 @@
       <c r="I272" s="8" t="s">
         <v>3906</v>
       </c>
-      <c r="J272" s="8" t="s">
-        <v>3907</v>
-      </c>
       <c r="K272" t="s">
         <v>3908</v>
       </c>
@@ -75956,30 +75938,24 @@
         <v>18</v>
       </c>
       <c r="M272" t="s">
-        <v>849</v>
+        <v>2219</v>
       </c>
       <c r="N272" t="s">
-        <v>574</v>
-      </c>
-      <c r="O272" t="s">
-        <v>2756</v>
-      </c>
-      <c r="P272" t="s">
-        <v>1546</v>
+        <v>738</v>
       </c>
     </row>
     <row r="274" spans="1:16">
       <c r="A274" s="7" t="s">
-        <v>4078</v>
+        <v>4073</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>2890</v>
+        <v>2920</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>2891</v>
+        <v>2921</v>
       </c>
       <c r="E274" s="8" t="s">
         <v>652</v>
@@ -76006,24 +75982,24 @@
         <v>18</v>
       </c>
       <c r="M274" t="s">
-        <v>2029</v>
+        <v>2341</v>
       </c>
       <c r="N274" t="s">
-        <v>738</v>
+        <v>458</v>
       </c>
     </row>
     <row r="276" spans="1:16">
       <c r="A276" s="7" t="s">
-        <v>4079</v>
+        <v>4074</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>2897</v>
+        <v>2923</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>1401</v>
+        <v>690</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>2898</v>
+        <v>2924</v>
       </c>
       <c r="E276" s="8" t="s">
         <v>652</v>
@@ -76040,6 +76016,9 @@
       <c r="I276" s="8" t="s">
         <v>3906</v>
       </c>
+      <c r="J276" s="8" t="s">
+        <v>3907</v>
+      </c>
       <c r="K276" t="s">
         <v>3908</v>
       </c>
@@ -76047,24 +76026,24 @@
         <v>18</v>
       </c>
       <c r="M276" t="s">
-        <v>2219</v>
+        <v>1130</v>
       </c>
       <c r="N276" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="278" spans="1:16">
       <c r="A278" s="7" t="s">
-        <v>4080</v>
+        <v>4075</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>2920</v>
+        <v>2934</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>489</v>
+        <v>2935</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>2921</v>
+        <v>2936</v>
       </c>
       <c r="E278" s="8" t="s">
         <v>652</v>
@@ -76091,30 +76070,30 @@
         <v>18</v>
       </c>
       <c r="M278" t="s">
-        <v>2341</v>
+        <v>1406</v>
       </c>
       <c r="N278" t="s">
-        <v>458</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280" spans="1:16">
       <c r="A280" s="7" t="s">
-        <v>4081</v>
+        <v>4076</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>2923</v>
+        <v>2946</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>690</v>
+        <v>1061</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>2924</v>
+        <v>2947</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>652</v>
+        <v>1780</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>653</v>
+        <v>3931</v>
       </c>
       <c r="G280" s="8" t="s">
         <v>652</v>
@@ -76132,27 +76111,27 @@
         <v>3908</v>
       </c>
       <c r="L280" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="M280" t="s">
-        <v>1130</v>
+        <v>422</v>
       </c>
       <c r="N280" t="s">
-        <v>729</v>
+        <v>21</v>
       </c>
     </row>
     <row r="282" spans="1:16">
       <c r="A282" s="7" t="s">
-        <v>4082</v>
+        <v>4077</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>2934</v>
+        <v>2966</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>2935</v>
+        <v>96</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>2936</v>
+        <v>486</v>
       </c>
       <c r="E282" s="8" t="s">
         <v>652</v>
@@ -76179,30 +76158,30 @@
         <v>18</v>
       </c>
       <c r="M282" t="s">
-        <v>1406</v>
+        <v>423</v>
       </c>
       <c r="N282" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="284" spans="1:16">
       <c r="A284" s="7" t="s">
-        <v>4083</v>
+        <v>4078</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>2946</v>
+        <v>3008</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>1061</v>
+        <v>3009</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>2947</v>
+        <v>3010</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>1780</v>
+        <v>652</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>3931</v>
+        <v>653</v>
       </c>
       <c r="G284" s="8" t="s">
         <v>652</v>
@@ -76214,33 +76193,39 @@
         <v>3906</v>
       </c>
       <c r="J284" s="8" t="s">
-        <v>3907</v>
+        <v>3921</v>
       </c>
       <c r="K284" t="s">
         <v>3908</v>
       </c>
       <c r="L284" t="s">
-        <v>366</v>
+        <v>70</v>
       </c>
       <c r="M284" t="s">
-        <v>422</v>
+        <v>692</v>
       </c>
       <c r="N284" t="s">
-        <v>21</v>
+        <v>574</v>
+      </c>
+      <c r="O284" t="s">
+        <v>1554</v>
+      </c>
+      <c r="P284" t="s">
+        <v>2937</v>
       </c>
     </row>
     <row r="286" spans="1:16">
       <c r="A286" s="7" t="s">
-        <v>4084</v>
+        <v>4079</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>2966</v>
+        <v>3012</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>96</v>
+        <v>1856</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>486</v>
+        <v>3013</v>
       </c>
       <c r="E286" s="8" t="s">
         <v>652</v>
@@ -76257,9 +76242,6 @@
       <c r="I286" s="8" t="s">
         <v>3906</v>
       </c>
-      <c r="J286" s="8" t="s">
-        <v>3907</v>
-      </c>
       <c r="K286" t="s">
         <v>3908</v>
       </c>
@@ -76267,24 +76249,24 @@
         <v>18</v>
       </c>
       <c r="M286" t="s">
-        <v>423</v>
+        <v>2077</v>
       </c>
       <c r="N286" t="s">
-        <v>38</v>
+        <v>458</v>
       </c>
     </row>
     <row r="288" spans="1:16">
       <c r="A288" s="7" t="s">
-        <v>4085</v>
+        <v>4080</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>3008</v>
+        <v>3027</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>3009</v>
+        <v>310</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>3010</v>
+        <v>3028</v>
       </c>
       <c r="E288" s="8" t="s">
         <v>652</v>
@@ -76302,39 +76284,33 @@
         <v>3906</v>
       </c>
       <c r="J288" s="8" t="s">
-        <v>3921</v>
+        <v>3907</v>
       </c>
       <c r="K288" t="s">
         <v>3908</v>
       </c>
       <c r="L288" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M288" t="s">
-        <v>692</v>
+        <v>2029</v>
       </c>
       <c r="N288" t="s">
-        <v>574</v>
-      </c>
-      <c r="O288" t="s">
-        <v>1554</v>
-      </c>
-      <c r="P288" t="s">
-        <v>2937</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16">
       <c r="A290" s="7" t="s">
-        <v>4086</v>
+        <v>4081</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>3012</v>
+        <v>3040</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>1856</v>
+        <v>1061</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>3013</v>
+        <v>3041</v>
       </c>
       <c r="E290" s="8" t="s">
         <v>652</v>
@@ -76358,24 +76334,24 @@
         <v>18</v>
       </c>
       <c r="M290" t="s">
-        <v>2077</v>
+        <v>3130</v>
       </c>
       <c r="N290" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16">
       <c r="A292" s="7" t="s">
-        <v>4087</v>
+        <v>4083</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>3027</v>
+        <v>3062</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>310</v>
+        <v>207</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>3028</v>
+        <v>3063</v>
       </c>
       <c r="E292" s="8" t="s">
         <v>652</v>
@@ -76402,24 +76378,24 @@
         <v>18</v>
       </c>
       <c r="M292" t="s">
-        <v>2029</v>
+        <v>3054</v>
       </c>
       <c r="N292" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:16">
       <c r="A294" s="7" t="s">
-        <v>4088</v>
+        <v>4084</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>3040</v>
+        <v>3068</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>1061</v>
+        <v>252</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>3041</v>
+        <v>120</v>
       </c>
       <c r="E294" s="8" t="s">
         <v>652</v>
@@ -76436,31 +76412,34 @@
       <c r="I294" s="8" t="s">
         <v>3906</v>
       </c>
+      <c r="J294" s="8" t="s">
+        <v>3907</v>
+      </c>
       <c r="K294" t="s">
         <v>3908</v>
       </c>
       <c r="L294" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="M294" t="s">
-        <v>3130</v>
+        <v>20</v>
       </c>
       <c r="N294" t="s">
-        <v>4089</v>
-      </c>
-    </row>
-    <row r="296" spans="1:14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16">
       <c r="A296" s="7" t="s">
-        <v>4090</v>
+        <v>4085</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>3062</v>
+        <v>3065</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>3063</v>
+        <v>120</v>
       </c>
       <c r="E296" s="8" t="s">
         <v>652</v>
@@ -76487,21 +76466,21 @@
         <v>18</v>
       </c>
       <c r="M296" t="s">
-        <v>3054</v>
+        <v>337</v>
       </c>
       <c r="N296" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="298" spans="1:14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16">
       <c r="A298" s="7" t="s">
-        <v>4091</v>
+        <v>4086</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>3068</v>
+        <v>4087</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>252</v>
+        <v>4088</v>
       </c>
       <c r="D298" s="8" t="s">
         <v>120</v>
@@ -76528,27 +76507,27 @@
         <v>3908</v>
       </c>
       <c r="L298" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="M298" t="s">
-        <v>20</v>
+        <v>422</v>
       </c>
       <c r="N298" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="300" spans="1:14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16">
       <c r="A300" s="7" t="s">
-        <v>4092</v>
+        <v>4089</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>3065</v>
+        <v>3850</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>120</v>
+        <v>3851</v>
       </c>
       <c r="E300" s="8" t="s">
         <v>652</v>
@@ -76566,7 +76545,7 @@
         <v>3906</v>
       </c>
       <c r="J300" s="8" t="s">
-        <v>3907</v>
+        <v>3935</v>
       </c>
       <c r="K300" t="s">
         <v>3908</v>
@@ -76575,24 +76554,24 @@
         <v>18</v>
       </c>
       <c r="M300" t="s">
-        <v>337</v>
+        <v>3967</v>
       </c>
       <c r="N300" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="302" spans="1:14">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16">
       <c r="A302" s="7" t="s">
-        <v>4093</v>
+        <v>4090</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>4094</v>
+        <v>3093</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>4095</v>
+        <v>665</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>120</v>
+        <v>3094</v>
       </c>
       <c r="E302" s="8" t="s">
         <v>652</v>
@@ -76616,27 +76595,30 @@
         <v>3908</v>
       </c>
       <c r="L302" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M302" t="s">
-        <v>422</v>
+        <v>2280</v>
       </c>
       <c r="N302" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="304" spans="1:14">
+        <v>560</v>
+      </c>
+      <c r="P302" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16">
       <c r="A304" s="7" t="s">
-        <v>4096</v>
+        <v>4091</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>3850</v>
+        <v>3097</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>113</v>
+        <v>1052</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>3851</v>
+        <v>3094</v>
       </c>
       <c r="E304" s="8" t="s">
         <v>652</v>
@@ -76654,33 +76636,39 @@
         <v>3906</v>
       </c>
       <c r="J304" s="8" t="s">
-        <v>3935</v>
+        <v>3907</v>
       </c>
       <c r="K304" t="s">
         <v>3908</v>
       </c>
       <c r="L304" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M304" t="s">
-        <v>3974</v>
+        <v>1194</v>
       </c>
       <c r="N304" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="306" spans="1:16">
+        <v>553</v>
+      </c>
+      <c r="O304" t="s">
+        <v>367</v>
+      </c>
+      <c r="P304" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
       <c r="A306" s="7" t="s">
-        <v>4097</v>
+        <v>4092</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>3093</v>
+        <v>4093</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>665</v>
+        <v>4094</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>3094</v>
+        <v>4095</v>
       </c>
       <c r="E306" s="8" t="s">
         <v>652</v>
@@ -76698,36 +76686,33 @@
         <v>3906</v>
       </c>
       <c r="J306" s="8" t="s">
-        <v>3907</v>
+        <v>3933</v>
       </c>
       <c r="K306" t="s">
         <v>3908</v>
       </c>
       <c r="L306" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M306" t="s">
-        <v>2280</v>
+        <v>2759</v>
       </c>
       <c r="N306" t="s">
-        <v>560</v>
-      </c>
-      <c r="P306" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="308" spans="1:16">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
       <c r="A308" s="7" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>3097</v>
+        <v>3136</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>1052</v>
+        <v>3137</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>3094</v>
+        <v>3138</v>
       </c>
       <c r="E308" s="8" t="s">
         <v>652</v>
@@ -76751,33 +76736,27 @@
         <v>3908</v>
       </c>
       <c r="L308" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M308" t="s">
-        <v>1194</v>
+        <v>3257</v>
       </c>
       <c r="N308" t="s">
-        <v>553</v>
-      </c>
-      <c r="O308" t="s">
-        <v>367</v>
-      </c>
-      <c r="P308" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="310" spans="1:16">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
       <c r="A310" s="7" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>4100</v>
+        <v>3147</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>4101</v>
+        <v>386</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>4102</v>
+        <v>387</v>
       </c>
       <c r="E310" s="8" t="s">
         <v>652</v>
@@ -76795,7 +76774,7 @@
         <v>3906</v>
       </c>
       <c r="J310" s="8" t="s">
-        <v>3933</v>
+        <v>3907</v>
       </c>
       <c r="K310" t="s">
         <v>3908</v>
@@ -76804,24 +76783,24 @@
         <v>18</v>
       </c>
       <c r="M310" t="s">
-        <v>2759</v>
+        <v>448</v>
       </c>
       <c r="N310" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="312" spans="1:16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
       <c r="A312" s="7" t="s">
-        <v>4103</v>
+        <v>4098</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>3136</v>
+        <v>3149</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>3137</v>
+        <v>3150</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>3138</v>
+        <v>3151</v>
       </c>
       <c r="E312" s="8" t="s">
         <v>652</v>
@@ -76848,97 +76827,9 @@
         <v>18</v>
       </c>
       <c r="M312" t="s">
-        <v>3257</v>
+        <v>1685</v>
       </c>
       <c r="N312" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="314" spans="1:16">
-      <c r="A314" s="7" t="s">
-        <v>4104</v>
-      </c>
-      <c r="B314" s="7" t="s">
-        <v>3147</v>
-      </c>
-      <c r="C314" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="D314" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E314" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="F314" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="G314" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="H314" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="I314" s="8" t="s">
-        <v>3906</v>
-      </c>
-      <c r="J314" s="8" t="s">
-        <v>3907</v>
-      </c>
-      <c r="K314" t="s">
-        <v>3908</v>
-      </c>
-      <c r="L314" t="s">
-        <v>18</v>
-      </c>
-      <c r="M314" t="s">
-        <v>448</v>
-      </c>
-      <c r="N314" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="316" spans="1:16">
-      <c r="A316" s="7" t="s">
-        <v>4105</v>
-      </c>
-      <c r="B316" s="7" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C316" s="8" t="s">
-        <v>3150</v>
-      </c>
-      <c r="D316" s="8" t="s">
-        <v>3151</v>
-      </c>
-      <c r="E316" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="F316" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="G316" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="H316" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="I316" s="8" t="s">
-        <v>3906</v>
-      </c>
-      <c r="J316" s="8" t="s">
-        <v>3907</v>
-      </c>
-      <c r="K316" t="s">
-        <v>3908</v>
-      </c>
-      <c r="L316" t="s">
-        <v>18</v>
-      </c>
-      <c r="M316" t="s">
-        <v>1685</v>
-      </c>
-      <c r="N316" t="s">
         <v>458</v>
       </c>
     </row>
@@ -77256,10 +77147,6 @@
     <hyperlink ref="B310" r:id="rId310"/>
     <hyperlink ref="A312" r:id="rId311"/>
     <hyperlink ref="B312" r:id="rId312"/>
-    <hyperlink ref="A314" r:id="rId313"/>
-    <hyperlink ref="B314" r:id="rId314"/>
-    <hyperlink ref="A316" r:id="rId315"/>
-    <hyperlink ref="B316" r:id="rId316"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -77340,16 +77227,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>4106</v>
+        <v>4099</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>4107</v>
+        <v>4100</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1755</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>4108</v>
+        <v>4101</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>652</v>
@@ -77364,10 +77251,10 @@
         <v>653</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>4109</v>
+        <v>4102</v>
       </c>
       <c r="K2" t="s">
-        <v>4110</v>
+        <v>4103</v>
       </c>
       <c r="L2" t="s">
         <v>70</v>
@@ -77381,7 +77268,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>4111</v>
+        <v>4104</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3306</v>
@@ -77405,10 +77292,10 @@
         <v>653</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>4109</v>
+        <v>4102</v>
       </c>
       <c r="K4" t="s">
-        <v>4110</v>
+        <v>4103</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
@@ -77422,7 +77309,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>4112</v>
+        <v>4105</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3311</v>
@@ -77446,10 +77333,10 @@
         <v>653</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>4109</v>
+        <v>4102</v>
       </c>
       <c r="K6" t="s">
-        <v>4110</v>
+        <v>4103</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -77463,16 +77350,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>4113</v>
+        <v>4106</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>4114</v>
+        <v>4107</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>4115</v>
+        <v>4108</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>4116</v>
+        <v>4109</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>652</v>
@@ -77487,10 +77374,10 @@
         <v>653</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>4109</v>
+        <v>4102</v>
       </c>
       <c r="K8" t="s">
-        <v>4110</v>
+        <v>4103</v>
       </c>
       <c r="L8" t="s">
         <v>25</v>
@@ -77507,16 +77394,16 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>4117</v>
+        <v>4110</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>4118</v>
+        <v>4111</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>4119</v>
+        <v>4112</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>4120</v>
+        <v>4113</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>652</v>
@@ -77531,10 +77418,10 @@
         <v>653</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>4109</v>
+        <v>4102</v>
       </c>
       <c r="K10" t="s">
-        <v>4110</v>
+        <v>4103</v>
       </c>
       <c r="L10" t="s">
         <v>25</v>
@@ -77551,7 +77438,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>4121</v>
+        <v>4114</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>3355</v>
@@ -77575,10 +77462,10 @@
         <v>653</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>4109</v>
+        <v>4102</v>
       </c>
       <c r="K12" t="s">
-        <v>4110</v>
+        <v>4103</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
@@ -77592,7 +77479,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
-        <v>4122</v>
+        <v>4115</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>3518</v>
@@ -77616,10 +77503,10 @@
         <v>653</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>4109</v>
+        <v>4102</v>
       </c>
       <c r="K14" t="s">
-        <v>4110</v>
+        <v>4103</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -77633,7 +77520,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
-        <v>4123</v>
+        <v>4116</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>3544</v>
@@ -77657,10 +77544,10 @@
         <v>653</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>4109</v>
+        <v>4102</v>
       </c>
       <c r="K16" t="s">
-        <v>4110</v>
+        <v>4103</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -77674,7 +77561,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="7" t="s">
-        <v>4124</v>
+        <v>4117</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>3796</v>
@@ -77701,7 +77588,7 @@
         <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>4110</v>
+        <v>4103</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>
@@ -77715,7 +77602,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="7" t="s">
-        <v>4125</v>
+        <v>4118</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>3801</v>
@@ -77739,10 +77626,10 @@
         <v>653</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>4109</v>
+        <v>4102</v>
       </c>
       <c r="K20" t="s">
-        <v>4110</v>
+        <v>4103</v>
       </c>
       <c r="L20" t="s">
         <v>18</v>
@@ -77756,7 +77643,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="7" t="s">
-        <v>4126</v>
+        <v>4119</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>3861</v>
@@ -77780,10 +77667,10 @@
         <v>653</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>4109</v>
+        <v>4102</v>
       </c>
       <c r="K22" t="s">
-        <v>4110</v>
+        <v>4103</v>
       </c>
       <c r="L22" t="s">
         <v>25</v>
